--- a/xlsx/约翰斯顿环礁_intext.xlsx
+++ b/xlsx/约翰斯顿环礁_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1222">
   <si>
     <t>约翰斯顿环礁</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>美國本土外小島嶼</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_约翰斯顿环礁</t>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_约翰斯顿环礁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unofficial_flags</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97_(%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%AD%8C)</t>
   </si>
   <si>
-    <t>星條旗 (美國國歌)</t>
+    <t>星条旗 (美国国歌)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%B1%9E%E5%9C%B0</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AD%9A%E9%A1%9E%E5%8F%8A%E9%87%8E%E7%94%9F%E5%8B%95%E7%89%A9%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>美國魚類及野生動物管理局</t>
+    <t>美国鱼类及野生动物管理局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pacific_Remote_Islands_Marine_National_Monument</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%B1%AC%E7%B6%93%E6%BF%9F%E5%8D%80</t>
   </si>
   <si>
-    <t>專屬經濟區</t>
+    <t>专属经济区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%EF%BC%8D%E9%98%BF%E7%95%99%E7%94%B3%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>夏威夷－阿留申時區</t>
+    <t>夏威夷－阿留申时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-10</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%90%E6%A8%99%E5%8C%96</t>
   </si>
   <si>
-    <t>坐標化</t>
+    <t>坐标化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>北島</t>
+    <t>北岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B2%9B</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國內政部</t>
+    <t>美国内政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%BF%E5%8C%85%E5%95%86</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -551,19 +551,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -581,25 +581,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
   </si>
   <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -611,25 +608,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -689,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大拉西亞</t>
+    <t>澳大拉西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -803,25 +800,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -833,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
@@ -875,13 +872,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -911,15 +908,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%B1%BF</t>
   </si>
   <si>
@@ -929,49 +923,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%95%99%E7%94%B3%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿留申群島</t>
+    <t>阿留申群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E7%BE%A4%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0)</t>
   </si>
   <si>
-    <t>福克斯群島 (阿拉斯加)</t>
+    <t>福克斯群岛 (阿拉斯加)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B1%B1%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>四山群島</t>
+    <t>四山群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%E4%BA%9E%E8%AB%BE%E5%A4%AB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>安德烈亞諾夫群島</t>
+    <t>安德烈亚诺夫群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%89%B9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>拉特群島</t>
+    <t>拉特群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>尼爾群島</t>
+    <t>尼尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9B%BC%E5%A4%9A%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科曼多爾群島</t>
+    <t>科曼多尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B3%B6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>千島群島</t>
+    <t>千岛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%83%E5%B2%9B%E7%BE%A4%E5%B2%9B</t>
@@ -989,31 +983,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%A0%81%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫頁島</t>
+    <t>库页岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E5%A1%94%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>尚塔爾群島</t>
+    <t>尚塔尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>約翰島</t>
+    <t>约翰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%87%91%E6%96%AF%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡拉金斯克島</t>
+    <t>卡拉金斯克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%88%BE%E9%9C%8D%E5%9C%96%E7%BE%85%E5%A4%AB%E5%B3%B6</t>
   </si>
   <si>
-    <t>韋爾霍圖羅夫島</t>
+    <t>韦尔霍图罗夫岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%8D%A1%E5%A7%86%E8%BD%A6%E8%87%A3%E5%B2%9B</t>
@@ -1025,25 +1019,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%89%B9%E6%A0%BC%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊特格蘭島</t>
+    <t>伊特格兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8B%9E%E5%80%AB%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖勞倫斯島</t>
+    <t>圣劳伦斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A5%A7%E7%B1%B3%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>迪奧米德群島</t>
+    <t>迪奥米德群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E4%BF%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖馬修島</t>
+    <t>圣马修岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E6%AF%94%E6%B4%9B%E5%A4%AB%E7%BE%A4%E5%B2%9B</t>
@@ -1067,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E7%88%BE%E7%89%B9%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯圖爾特島 (阿拉斯加州)</t>
+    <t>斯图尔特岛 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%82%81%E5%85%8B%E7%88%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖邁克爾島</t>
+    <t>圣迈克尔岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%96%AF%E5%8D%9A%E6%B4%9B%E5%B2%9B</t>
@@ -1091,31 +1085,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%92%E9%A6%AC%E9%87%91%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>舒馬金群島</t>
+    <t>舒马金群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B1%B3%E8%BF%AA%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塞米迪群島</t>
+    <t>塞米迪群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E9%87%8C%E7%A7%91%E5%A4%AB%E5%B3%B6</t>
   </si>
   <si>
-    <t>奇里科夫島</t>
+    <t>奇里科夫岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%BF%AA%E4%BA%9E%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科迪亞克群島</t>
+    <t>科迪亚克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>奧古斯丁火山</t>
+    <t>奥古斯丁火山</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kalgin_Island</t>
@@ -1127,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%94%E5%8F%A4%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙塔古島 (阿拉斯加州)</t>
+    <t>蒙塔古岛 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A3%E6%AC%BD%E5%B8%83%E9%AD%AF%E5%85%8B%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>欣欽布魯克島 (阿拉斯加州)</t>
+    <t>欣钦布鲁克岛 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞歷山大群島</t>
+    <t>亚历山大群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BE%BE%E7%93%9C%E4%BE%9D</t>
@@ -1157,19 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>波徹島</t>
+    <t>波彻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%B3%B6_(%E5%8A%A0%E6%8B%BF%E5%A4%A7)</t>
   </si>
   <si>
-    <t>皮特島 (加拿大)</t>
+    <t>皮特岛 (加拿大)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%85%8B%E6%96%AF%E5%B3%B6_(%E5%8D%91%E6%96%AF%E7%9C%81)</t>
   </si>
   <si>
-    <t>班克斯島 (卑斯省)</t>
+    <t>班克斯岛 (卑斯省)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hawkesbury_Island</t>
@@ -1181,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E4%B8%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>大公主島</t>
+    <t>大公主岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>溫哥華島</t>
+    <t>温哥华岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Discovery_Islands</t>
@@ -1205,19 +1199,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%83%A1%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖胡安群島</t>
+    <t>圣胡安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>日本列島</t>
+    <t>日本列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B7%9E</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B</t>
   </si>
   <si>
-    <t>四國</t>
+    <t>四国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B7%9E_(%E6%97%A5%E6%9C%AC)</t>
@@ -1247,61 +1241,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%91%E5%B3%B6%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>甑島列島</t>
+    <t>甑岛列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8D%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>天草群島</t>
+    <t>天草群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E5%A5%B3%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>男女群島</t>
+    <t>男女群岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%B3%A5%E5%B3%B6_(%E9%95%B7%E5%B4%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-鳥島 (長崎県)</t>
+    <t>ja-鸟岛 (长崎県)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B3%B6%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>五島列島</t>
+    <t>五岛列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%8D%81%E4%B9%9D%E5%B3%B6_(%E8%A5%BF%E6%B5%B7%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92)</t>
   </si>
   <si>
-    <t>九十九島 (西海國立公園)</t>
+    <t>九十九岛 (西海国立公园)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%88%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>平戶島</t>
+    <t>平户岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%9C%88%E5%B3%B6</t>
   </si>
   <si>
-    <t>生月島</t>
+    <t>生月岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%BA%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-度島</t>
+    <t>ja-度岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%9A%84%E5%B1%B1%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-的山大島</t>
+    <t>ja-的山大岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E9%A9%AC%E5%B2%9B</t>
@@ -1313,67 +1307,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B9%E5%B2%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>壹岐島</t>
+    <t>壹岐岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%B7%B9%E5%B3%B6_(%E9%95%B7%E5%B4%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-鷹島 (長崎県)</t>
+    <t>ja-鹰岛 (长崎県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%A6%8F%E5%B3%B6_(%E9%95%B7%E5%B4%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-福島 (長崎県)</t>
+    <t>ja-福岛 (长崎県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%8E%84%E6%B5%B7%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-玄海諸島</t>
+    <t>ja-玄海诸岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%BD%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-彦島</t>
+    <t>ja-彦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%96%E6%B5%81%E5%B3%B6</t>
   </si>
   <si>
-    <t>巖流島</t>
+    <t>巖流岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%9D%92%E6%B5%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-青海島</t>
+    <t>ja-青海岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E8%A6%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-見島</t>
+    <t>ja-见岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%B2%90%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>隱岐群島</t>
+    <t>隐岐群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A0%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>大根島</t>
+    <t>大根岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E7%99%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>能登島</t>
+    <t>能登岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B8%A1%E5%B2%9B</t>
@@ -1385,61 +1379,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%9F%E5%B3%B6</t>
   </si>
   <si>
-    <t>粟島</t>
+    <t>粟岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>飛島</t>
+    <t>飞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E5%B3%B6%E5%B0%8F%E5%B3%B6</t>
   </si>
   <si>
-    <t>渡島小島</t>
+    <t>渡岛小岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E5%B3%B6%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>渡島大島</t>
+    <t>渡岛大岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B0%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>奧尻島</t>
+    <t>奥尻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B3%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>天賣島</t>
+    <t>天卖岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E5%B0%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>燒尻島</t>
+    <t>烧尻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B0%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>利尻島</t>
+    <t>利尻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E6%96%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>禮文島</t>
+    <t>礼文岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%A9%A2%E5%B3%B6_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>海驢島 (日本)</t>
+    <t>海驴岛 (日本)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%98%A5%E5%9B%BD%E5%B2%B1</t>
@@ -1451,43 +1445,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%B5%9C%E5%B1%85%E5%B3%B6</t>
   </si>
   <si>
-    <t>小鵜居島</t>
+    <t>小鹈居岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B5%9C%E5%B1%85%E5%B3%B6</t>
   </si>
   <si>
-    <t>鵜居島</t>
+    <t>鹈居岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B6%AE%E6%9A%AE%E6%AD%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>嶮暮歸島</t>
+    <t>崄暮归岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BB%91%E5%B3%B6_(%E5%8E%9A%E5%B2%B8%E7%94%BA)</t>
   </si>
   <si>
-    <t>大黑島 (厚岸町)</t>
+    <t>大黑岛 (厚岸町)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E4%BB%99%E6%B2%BC%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>氣仙沼大島</t>
+    <t>气仙沼大岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%87%BA%E5%B3%B6_(%E5%AE%AE%E5%9F%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-出島 (宮城県)</t>
+    <t>ja-出岛 (宫城県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B1%9F%E5%B3%B6_(%E5%AE%AE%E5%9F%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-江島 (宮城県)</t>
+    <t>ja-江岛 (宫城県)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kinkasan</t>
@@ -1511,31 +1505,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>松島</t>
+    <t>松岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E4%B9%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>江之島</t>
+    <t>江之岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E5%B3%B6</t>
   </si>
   <si>
-    <t>初島</t>
+    <t>初岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%B1%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊豆群島</t>
+    <t>伊豆群岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B7%A1%E5%B3%B6_(%E6%B2%BC%E6%B4%A5%E5%B8%82)</t>
   </si>
   <si>
-    <t>ja-淡島 (沼津市)</t>
+    <t>ja-淡岛 (沼津市)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kami-shima</t>
@@ -1547,7 +1541,7 @@
     <t>https://ja.wikipedia.org/wiki/%E4%B8%89%E6%B2%B3%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-三河大島</t>
+    <t>ja-三河大岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/T%C5%8Dshijima</t>
@@ -1577,13 +1571,13 @@
     <t>https://ja.wikipedia.org/wiki/%E9%96%93%E5%B4%8E%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-間崎島</t>
+    <t>ja-间崎岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%88%B4%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-鈴島</t>
+    <t>ja-铃岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kii_%C5%8Cshima</t>
@@ -1595,13 +1589,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>沼島</t>
+    <t>沼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>友島</t>
+    <t>友岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E8%B7%AF%E5%B2%9B</t>
@@ -1613,19 +1607,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%B3%B6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>家島群島</t>
+    <t>家岛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B1%86%E5%B3%B6_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>小豆島 (日本)</t>
+    <t>小豆岛 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B3%B6%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>直島諸島</t>
+    <t>直岛诸岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shiwaku_Islands</t>
@@ -1643,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E4%BA%88%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>藝予諸島</t>
+    <t>艺予诸岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/B%C5%8Dyo_Islands</t>
@@ -1655,181 +1649,181 @@
     <t>https://ja.wikipedia.org/wiki/%E7%AC%A0%E6%88%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-笠戸島</t>
+    <t>ja-笠戸岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%BB%92%E9%AB%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-黒髪島</t>
+    <t>ja-黒髪岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E6%B4%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-大津島</t>
+    <t>ja-大津岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%90%91%E5%B3%B6_(%E4%BD%90%E8%B3%80%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-向島 (佐賀県)</t>
+    <t>ja-向岛 (佐贺県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A7%AB%E5%B3%B6_(%E5%A4%A7%E5%88%86%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-姫島 (大分県)</t>
+    <t>ja-姫岛 (大分県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%8C%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-日振島</t>
+    <t>ja-日振岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%88%B8%E5%B3%B6_(%E6%84%9B%E5%AA%9B%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-戸島 (愛媛県)</t>
+    <t>ja-戸岛 (爱媛県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BF%9D%E6%88%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-保戸島</t>
+    <t>ja-保戸岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%85%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-大入島</t>
+    <t>ja-大入岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BC%8A%E5%B3%B6_(%E9%98%BF%E5%8D%97%E5%B8%82)</t>
   </si>
   <si>
-    <t>ja-伊島 (阿南市)</t>
+    <t>ja-伊岛 (阿南市)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%87%BA%E7%BE%BD%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-出羽島</t>
+    <t>ja-出羽岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B2%96%E3%81%AE%E5%B3%B6_(%E9%AB%98%E7%9F%A5%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-沖の島 (高知県)</t>
+    <t>ja-冲の岛 (高知県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%B3%B6%E6%B5%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-島浦島</t>
+    <t>ja-岛浦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>琉球群島</t>
+    <t>琉球群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9A%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>大隅群島</t>
+    <t>大隅群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E5%99%B6%E5%96%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>吐噶喇群島</t>
+    <t>吐噶喇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%84%E7%BE%8E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奄美群島</t>
+    <t>奄美群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>沖繩群島</t>
+    <t>冲绳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%8F%A4%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>宮古群島</t>
+    <t>宫古群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E9%87%8D%E5%B1%B1%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>八重山群島</t>
+    <t>八重山群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>大東群島</t>
+    <t>大东群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>台灣島嶼</t>
+    <t>台湾岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>澎湖群島</t>
+    <t>澎湖群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%A3%E9%AD%9A%E8%87%BA%E5%88%97%E5%B6%BC</t>
   </si>
   <si>
-    <t>釣魚臺列嶼</t>
+    <t>钓鱼台列屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E4%B8%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>北方三島</t>
+    <t>北方三岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9A%86%E5%B6%BC</t>
   </si>
   <si>
-    <t>基隆嶼</t>
+    <t>基隆屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>和平島</t>
+    <t>和平岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E5%B1%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>龜山島</t>
+    <t>龟山岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%9A%E5%8D%9C%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>奚卜蘭島</t>
+    <t>奚卜兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BB%99%E5%8F%B0</t>
@@ -1841,49 +1835,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%B3%B6</t>
   </si>
   <si>
-    <t>綠島</t>
+    <t>绿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%B6%BC</t>
   </si>
   <si>
-    <t>蘭嶼</t>
+    <t>兰屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%98%AD%E5%B6%BC</t>
   </si>
   <si>
-    <t>小蘭嶼</t>
+    <t>小兰屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8D%97%E5%B8%82%E7%AC%AC%E4%BA%94%E6%9C%9F%E5%B8%82%E5%9C%B0%E9%87%8D%E5%8A%83%E5%8D%80</t>
   </si>
   <si>
-    <t>臺南市第五期市地重劃區</t>
+    <t>台南市第五期市地重划区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%81%E5%85%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>漁光島</t>
+    <t>渔光岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E6%B4%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>旗津島</t>
+    <t>旗津岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%B6%BC</t>
   </si>
   <si>
-    <t>琉球嶼</t>
+    <t>琉球屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6</t>
   </si>
   <si>
-    <t>島</t>
+    <t>岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%81</t>
@@ -1901,25 +1895,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>珍島</t>
+    <t>珍岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%8F%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>江華島</t>
+    <t>江华岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>南海島</t>
+    <t>南海岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%B1%E9%99%B5%E5%B3%B6</t>
   </si>
   <si>
-    <t>鬱陵島</t>
+    <t>郁陵岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B5%B7%E4%BA%94%E5%B2%9B</t>
@@ -1931,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加沙群島</t>
+    <t>加沙群岛</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/%EC%99%B8%EC%97%B0%EC%97%B4%EB%8F%84</t>
@@ -1985,19 +1979,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BB%81%E5%B0%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>歐仁尼群島</t>
+    <t>欧仁尼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A7%86%E6%96%AF%E5%9F%BA%E6%9F%AF%E8%96%A9%E7%A7%91%E5%A4%AB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>里姆斯基柯薩科夫群島</t>
+    <t>里姆斯基柯萨科夫群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%B3%B6</t>
   </si>
   <si>
-    <t>獨島</t>
+    <t>独岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%B2%A9%E7%A4%81</t>
@@ -2063,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%97%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>南日島</t>
+    <t>南日岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%84%E6%B4%B2%E5%B2%9B</t>
@@ -2075,55 +2069,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E7%B8%A3</t>
   </si>
   <si>
-    <t>金門縣</t>
+    <t>金门县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A5%96%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬祖列島</t>
+    <t>马祖列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>深圳島嶼</t>
+    <t>深圳岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E6%B5%B7%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>珠海島嶼</t>
+    <t>珠海岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%95%E9%A0%AD%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>汕頭島嶼</t>
+    <t>汕头岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%95%E5%B0%BE%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>汕尾島嶼</t>
+    <t>汕尾岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>香港島嶼</t>
+    <t>香港岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>澳門島嶼</t>
+    <t>澳门岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%AC%A0%E5%8E%9F%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>小笠原群島</t>
+    <t>小笠原群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%B8%9F%E5%B2%9B</t>
@@ -2135,13 +2129,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E4%B9%8B%E9%B3%A5%E7%A4%81</t>
   </si>
   <si>
-    <t>沖之鳥礁</t>
+    <t>冲之鸟礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>南海諸島</t>
+    <t>南海诸岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8D%97%E5%B2%9B</t>
@@ -2183,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9C%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>富國島</t>
+    <t>富国岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E4%BB%91%E7%BE%A4%E5%B2%9B</t>
@@ -2201,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%85%AC%E5%B3%B6</t>
   </si>
   <si>
-    <t>戈公島</t>
+    <t>戈公岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%81%E9%AA%A8%E5%B2%9B</t>
@@ -2225,25 +2219,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%8F%8A%E7%91%9A%E5%B3%B6</t>
   </si>
   <si>
-    <t>小珊瑚島</t>
+    <t>小珊瑚岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B3%B6_(%E6%B3%B0%E5%9C%8B)</t>
   </si>
   <si>
-    <t>竹島 (泰國)</t>
+    <t>竹岛 (泰国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E5%B3%B6_(%E6%B3%B0%E5%9C%8B)</t>
   </si>
   <si>
-    <t>龜島 (泰國)</t>
+    <t>龟岛 (泰国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B2%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>帕岸島</t>
+    <t>帕岸岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%81%E6%B2%99%E6%A2%85%E5%B2%9B</t>
@@ -2273,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬來群島</t>
+    <t>马来群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B7%BD%E4%BB%96%E7%BE%A4%E5%B2%9B</t>
@@ -2297,37 +2291,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%83%E5%BA%AB%E5%B3%B6_(%E5%A9%86%E7%BE%85%E6%B4%B2)</t>
   </si>
   <si>
-    <t>塞布庫島 (婆羅洲)</t>
+    <t>塞布库岛 (婆罗洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BA%9E%E5%8D%A1%E9%87%8C%E9%A6%AC%E5%A1%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬亞卡里馬塔島</t>
+    <t>马亚卡里马塔岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%87%8C%E9%A6%AC%E5%A1%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡里馬塔群島</t>
+    <t>卡里马塔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B7%B4%E8%BF%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>石巴迪島</t>
+    <t>石巴迪岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E5%A5%B4%E5%B9%B2%E5%B3%B6</t>
   </si>
   <si>
-    <t>奴奴干島</t>
+    <t>奴奴干岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%8B%89%E6%A0%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>打拉根島</t>
+    <t>打拉根岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E9%97%BD%E5%B2%9B</t>
@@ -2345,43 +2339,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%B8%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>魯帕島</t>
+    <t>鲁帕岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%BA%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>望加麗島</t>
+    <t>望加丽岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9D%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴東島</t>
+    <t>巴东岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%90%8D%E4%B8%81%E5%AE%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>直名丁宜島</t>
+    <t>直名丁宜岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E6%A1%91%E5%B3%B6</t>
   </si>
   <si>
-    <t>朗桑島</t>
+    <t>朗桑岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E9%82%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡巴那島</t>
+    <t>卡巴那岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BA%B7%E4%BC%AF%E8%A5%BF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>圖康伯西群島</t>
+    <t>图康伯西群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%B2%9B</t>
@@ -2393,25 +2387,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%95%8F%E5%B3%B6</t>
   </si>
   <si>
-    <t>烏敏島</t>
+    <t>乌敏岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>德光島</t>
+    <t>德光岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%95%E5%BB%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>裕廊島</t>
+    <t>裕廊岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%B7%98%E6%B2%99</t>
   </si>
   <si>
-    <t>聖淘沙</t>
+    <t>圣淘沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%8B%89%E5%A8%81%E8%A5%BF%E5%B2%9B</t>
@@ -2423,43 +2417,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%8B%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塔勞群島</t>
+    <t>塔劳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%BE%A9%E8%B5%AB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>桑義赫群島</t>
+    <t>桑义赫群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%90%89%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>托吉安群島</t>
+    <t>托吉安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%93%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>邦蓋群島</t>
+    <t>邦盖群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塞拉亞群島</t>
+    <t>塞拉亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%B2%83%E5%B0%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>沃沃尼島</t>
+    <t>沃沃尼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>穆納島</t>
+    <t>穆纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%A1%BF%E5%B2%9B</t>
@@ -2489,43 +2483,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9F%8B%E5%AE%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴韋安島</t>
+    <t>巴韦安岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%8E%84%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>康厄安群島</t>
+    <t>康厄安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%8A%A0%E5%B3%B6</t>
   </si>
   <si>
-    <t>邦加島</t>
+    <t>邦加岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BF%E9%87%8C%E6%B4%9E%E5%B3%B6</t>
   </si>
   <si>
-    <t>勿里洞島</t>
+    <t>勿里洞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%9C%9F%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>納土納群島</t>
+    <t>纳土纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%97%E5%B7%B4%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿南巴斯群島</t>
+    <t>阿南巴斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%8A%A0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>林加群島</t>
+    <t>林加群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B7%BD%E4%BB%96%E7%BE%A4%E5%B2%9B</t>
@@ -2543,31 +2537,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E5%B0%BC%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>珀尼達島</t>
+    <t>珀尼达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E7%9B%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>龍目島</t>
+    <t>龙目岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B7%B4%E5%93%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>松巴哇島</t>
+    <t>松巴哇岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%B4%84%E5%B3%B6</t>
   </si>
   <si>
-    <t>莫約島</t>
+    <t>莫约岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8E%AB%E5%A4%9A%E5%B3%B6</t>
   </si>
   <si>
-    <t>科莫多島</t>
+    <t>科莫多岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%8D%A1%E5%B2%9B</t>
@@ -2585,37 +2579,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%B4%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索洛群島</t>
+    <t>索洛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B4%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿洛群島</t>
+    <t>阿洛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%99%B6%E7%BE%85%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿陶羅島</t>
+    <t>阿陶罗岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B7%B4%E5%B3%B6</t>
   </si>
   <si>
-    <t>松巴島</t>
+    <t>松巴岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%AD%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩武群島</t>
+    <t>萨武群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%9C%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅地島</t>
+    <t>罗地岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E6%B1%B6</t>
@@ -2627,25 +2621,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E7%BE%A4%E5%B3%B6_(%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E)</t>
   </si>
   <si>
-    <t>西南群島 (印度尼西亞)</t>
+    <t>西南群岛 (印度尼西亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E8%92%82%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>勒蒂群島</t>
+    <t>勒蒂群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴巴群島</t>
+    <t>巴巴群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%AF%A7%E5%B7%B4%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塔寧巴爾群島</t>
+    <t>塔宁巴尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
@@ -2657,13 +2651,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%AE%8B</t>
   </si>
   <si>
-    <t>呂宋</t>
+    <t>吕宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>米沙鄢群島</t>
+    <t>米沙鄢群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E5%85%B0%E8%80%81%E5%B2%9B</t>
@@ -2675,31 +2669,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E6%9C%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴拉望島</t>
+    <t>巴拉望岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%83%BD%E6%B4%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>民都洛島</t>
+    <t>民都洛岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%B8%B9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴丹群島</t>
+    <t>巴丹群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E7%85%99%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴布煙群島</t>
+    <t>巴布烟群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%A5%BF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>蘇祿群島</t>
+    <t>苏禄群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%B9%BF%E5%8A%A0%E7%BE%A4%E5%B2%9B</t>
@@ -2711,7 +2705,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BE%85%E6%B3%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>摩羅泰島</t>
+    <t>摩罗泰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A9%AC%E9%BB%91%E6%8B%89%E5%B2%9B</t>
@@ -2723,25 +2717,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8D%A0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴占群島</t>
+    <t>巴占群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%AF%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奧比群島</t>
+    <t>奥比群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%8B%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>蘇拉群島</t>
+    <t>苏拉群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>布魯島</t>
+    <t>布鲁岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%B0%E5%B2%9B</t>
@@ -2765,37 +2759,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B8%95%E9%AD%AF%E9%98%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩帕魯阿島</t>
+    <t>萨帕鲁阿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E9%81%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>班達群島</t>
+    <t>班达群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Gorong%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>Gorong群島</t>
+    <t>Gorong群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%9C%96%E8%B2%9D%E6%8B%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓦圖貝拉群島</t>
+    <t>瓦图贝拉群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E4%BC%8A%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡伊群島</t>
+    <t>卡伊群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿魯群島</t>
+    <t>阿鲁群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -2807,7 +2801,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷群島</t>
+    <t>夏威夷群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%8E%8B%E7%BE%A4%E5%B2%9B</t>
@@ -2819,7 +2813,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6_(%E6%96%B0%E8%A5%BF%E8%98%AD)</t>
   </si>
   <si>
-    <t>南島 (新西蘭)</t>
+    <t>南岛 (新西兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A5%88%E5%B0%94%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2831,21 +2825,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%88%88%E9%BA%A5%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩拉戈麥斯島</t>
+    <t>萨拉戈麦斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B2%9B</t>
   </si>
   <si>
-    <t>中途岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B2%9B</t>
   </si>
   <si>
-    <t>威克岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2855,9 +2843,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
   </si>
   <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%8A%A0</t>
   </si>
   <si>
@@ -2867,13 +2852,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%96%A9%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬克薩斯群島</t>
+    <t>马克萨斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>社會群島</t>
+    <t>社会群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E9%98%BF%E8%8E%AB%E5%9C%9F%E7%BE%A4%E5%B2%9B</t>
@@ -2903,13 +2888,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>美属萨摩亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>鳳凰群島</t>
+    <t>凤凰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%A7%86%E7%BE%A4%E5%B2%9B</t>
@@ -2921,31 +2903,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>美拉尼西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>新幾內亞</t>
+    <t>新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%B3%88%E5%AE%89%E5%B8%95%E7%89%B9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>拉賈安帕特群島</t>
+    <t>拉贾安帕特群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%80%83%E6%BB%95%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯考滕群島</t>
+    <t>斯考滕群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BD%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞彭島</t>
+    <t>亚彭岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A6%E7%BE%A4%E5%B2%9B</t>
@@ -2957,31 +2936,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%89%B9%E7%88%BE%E5%8D%A1%E6%96%AF%E6%89%98%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>當特爾卡斯托群島</t>
+    <t>当特尔卡斯托群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BE%85%E5%B8%83%E9%87%8C%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特羅布里恩群島</t>
+    <t>特罗布里恩群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E6%8B%89%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>伍德拉克島</t>
+    <t>伍德拉克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E4%BA%9E%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>路易西亞德群島</t>
+    <t>路易西亚德群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%9B%B7%E6%96%AF%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>托雷斯海峽群島</t>
+    <t>托雷斯海峡群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2999,9 +2978,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
   </si>
   <si>
@@ -3011,9 +2987,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
   </si>
   <si>
-    <t>斐济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -3023,9 +2996,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>关岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BD%97%E6%9E%97%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -3041,9 +3011,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%99%E9%B2%81</t>
   </si>
   <si>
@@ -3059,7 +3026,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>塔斯馬尼亞州</t>
+    <t>塔斯马尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%AF%BA%E7%BE%A4%E5%B2%9B</t>
@@ -3089,19 +3056,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖靈群島</t>
+    <t>圣灵群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>弗雷澤島</t>
+    <t>弗雷泽岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%8B%B3%E7%88%B5%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪勳爵島</t>
+    <t>豪勳爵岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%8B%E9%BC%A0%E5%B2%9B</t>
@@ -3143,7 +3110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%92%82%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>邦蒂群島</t>
+    <t>邦蒂群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%92%82%E6%B3%A2%E5%BE%B7%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -3167,13 +3134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瑪麗亞群島</t>
+    <t>玛丽亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E7%9B%A7%E6%99%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓜達盧普島</t>
+    <t>瓜达卢普岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%9D%E5%B0%BC%E6%89%98%E7%BE%A4%E5%B2%9B</t>
@@ -3185,7 +3152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%92%82%E7%B6%AD%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>納蒂維達島</t>
+    <t>纳蒂维达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%BB%B4%E5%88%A9%E4%BA%9A%E5%B8%8C%E8%B5%AB%E5%A4%9A%E7%BE%A4%E5%B2%9B</t>
@@ -3209,19 +3176,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%96%A9%E5%8D%A1%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>大薩卡特島</t>
+    <t>大萨卡特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E8%92%82%E6%A0%BC%E9%9B%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>埃爾蒂格雷島</t>
+    <t>埃尔蒂格雷岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E6%9F%A5%E5%9C%AD%E5%A1%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>孔查圭塔島</t>
+    <t>孔查圭塔岛</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Meanguera</t>
@@ -3239,7 +3206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%8A%E7%93%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>科伊瓦島</t>
+    <t>科伊瓦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E7%BE%A4%E5%B2%9B</t>
@@ -3251,7 +3218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A0%BC%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>高格納島</t>
+    <t>高格纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BD%A9%E6%B4%9B%E5%B2%9B</t>
@@ -3269,25 +3236,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>普納島</t>
+    <t>普纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%B4%9B%E5%9F%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奇洛埃群島</t>
+    <t>奇洛埃群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E8%AB%BE%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>喬諾斯群島</t>
+    <t>乔诺斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E9%81%94%E8%90%8A%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬格達萊納島</t>
+    <t>马格达莱纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E8%B4%B9%E5%B0%94%E5%8D%97%E5%BE%B7%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -3299,31 +3266,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%AF%E6%BA%AB%E7%89%B9%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>德斯溫特德群島</t>
+    <t>德斯温特德群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%B8%83%E9%BE%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒂布龍島</t>
+    <t>蒂布龙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B5%AB%E7%88%BE%E5%BE%B7%E6%8B%89%E7%93%9C%E7%88%BE%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>安赫爾德拉瓜爾達島</t>
+    <t>安赫尔德拉瓜尔达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%BE%B7%E7%BE%85%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>塞德羅斯島</t>
+    <t>塞德罗斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BD%E9%9D%88%E5%B3%B6</t>
   </si>
   <si>
-    <t>幽靈島</t>
+    <t>幽灵岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%C2%B7%E7%89%B9%E9%87%8C%E8%90%A8%E7%A4%81</t>
@@ -3359,19 +3326,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E8%BF%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>珊迪島</t>
+    <t>珊迪岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%AF%E6%B8%A3%E7%94%B8%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>洛斯渣甸群島</t>
+    <t>洛斯渣甸群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%B3%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>中鳥島</t>
+    <t>中鸟岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E4%BA%8B%E6%95%85</t>
@@ -3407,7 +3374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%86%E8%8A%AF%E7%86%94%E6%AF%80</t>
   </si>
   <si>
-    <t>堆芯熔毀</t>
+    <t>堆芯熔毁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_military_nuclear_accidents</t>
@@ -3461,7 +3428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%AD%90%E5%8F%8D%E6%87%89%E7%88%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>核子反應爐列表</t>
+    <t>核子反应炉列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_nuclear_test_sites</t>
@@ -3563,13 +3530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%BB%80%E7%89%B9%E5%A7%86%E6%A0%B8%E5%BB%A2%E6%96%99%E7%88%86%E7%82%B8%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>克什特姆核廢料爆炸事故</t>
+    <t>克什特姆核废料爆炸事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%96%AF%E5%96%AC%E7%81%AB%E7%81%BD</t>
   </si>
   <si>
-    <t>溫斯喬火災</t>
+    <t>温斯乔火灾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operation_Plumbbob</t>
@@ -3593,7 +3560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%A6%8F%E5%BE%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>漢福德區</t>
+    <t>汉福德区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radioactive_contamination_from_the_Rocky_Flats_Plant</t>
@@ -3605,7 +3572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E8%88%87%E9%95%B7%E5%B4%8E%E5%8E%9F%E5%AD%90%E5%BD%88%E7%88%86%E7%82%B8</t>
   </si>
   <si>
-    <t>廣島與長崎原子彈爆炸</t>
+    <t>广岛与长崎原子弹爆炸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_books_about_nuclear_issues</t>
@@ -3623,13 +3590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%88%87%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>法國與大規模殺傷性武器</t>
+    <t>法国与大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Day_against_Nuclear_Tests</t>
@@ -3659,19 +3626,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%9B%BB%E5%AD%98%E5%BB%A2%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>核電存廢問題</t>
+    <t>核电存废问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%AD%A2%E6%A0%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>廢止核電</t>
+    <t>废止核电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8F%8D%E6%A0%B8%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>臺灣反核遊行</t>
+    <t>台湾反核游行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_the_anti-nuclear_movement</t>
@@ -6810,7 +6777,7 @@
         <v>189</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6836,10 +6803,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6865,10 +6832,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -6894,10 +6861,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -6923,10 +6890,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6952,10 +6919,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6981,10 +6948,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -7010,10 +6977,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -7039,10 +7006,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -7068,10 +7035,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -7097,10 +7064,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7126,10 +7093,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7155,10 +7122,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -7184,10 +7151,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7213,10 +7180,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7242,10 +7209,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7271,10 +7238,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7300,10 +7267,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7329,10 +7296,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7358,10 +7325,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7387,10 +7354,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -7416,10 +7383,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -7445,10 +7412,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7474,10 +7441,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7503,10 +7470,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7532,10 +7499,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7561,10 +7528,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7590,10 +7557,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7619,10 +7586,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -7648,10 +7615,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7677,10 +7644,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7706,10 +7673,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7735,10 +7702,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7764,10 +7731,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7793,10 +7760,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7822,10 +7789,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7851,10 +7818,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7880,10 +7847,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7909,10 +7876,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -7938,10 +7905,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7967,10 +7934,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7996,10 +7963,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8025,10 +7992,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -8054,10 +8021,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -8083,10 +8050,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>5</v>
@@ -8112,10 +8079,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8141,10 +8108,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -8170,10 +8137,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>196</v>
+      </c>
+      <c r="F142" t="s">
         <v>197</v>
-      </c>
-      <c r="F142" t="s">
-        <v>198</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8199,10 +8166,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -8228,10 +8195,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8257,10 +8224,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8286,10 +8253,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8315,10 +8282,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -8344,10 +8311,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8373,10 +8340,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8402,10 +8369,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -8431,10 +8398,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="G151" t="n">
         <v>12</v>
@@ -8460,10 +8427,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -8489,10 +8456,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8518,10 +8485,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8547,10 +8514,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8576,10 +8543,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8605,10 +8572,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8634,10 +8601,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8663,10 +8630,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8692,10 +8659,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -8721,10 +8688,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8750,10 +8717,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8779,10 +8746,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8808,10 +8775,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8837,10 +8804,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8866,10 +8833,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8895,10 +8862,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8924,10 +8891,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8953,10 +8920,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8982,10 +8949,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9011,10 +8978,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9040,10 +9007,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9069,10 +9036,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9098,10 +9065,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -9127,10 +9094,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9156,10 +9123,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -9185,10 +9152,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9214,10 +9181,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9243,10 +9210,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9272,10 +9239,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9301,10 +9268,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9330,10 +9297,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9359,10 +9326,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9388,10 +9355,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9417,10 +9384,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9446,10 +9413,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9475,10 +9442,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9504,10 +9471,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9533,10 +9500,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9562,10 +9529,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9591,10 +9558,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9620,10 +9587,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9649,10 +9616,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9678,10 +9645,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9707,10 +9674,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9736,10 +9703,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9765,10 +9732,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9794,10 +9761,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9823,10 +9790,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9852,10 +9819,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9881,10 +9848,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9910,10 +9877,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9939,10 +9906,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9968,10 +9935,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9997,10 +9964,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10026,10 +9993,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10055,10 +10022,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10084,10 +10051,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10113,10 +10080,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10142,10 +10109,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10171,10 +10138,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10200,10 +10167,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10229,10 +10196,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10258,10 +10225,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -10287,10 +10254,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10316,10 +10283,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10345,10 +10312,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10374,10 +10341,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10403,10 +10370,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10432,10 +10399,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10461,10 +10428,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10490,10 +10457,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10519,10 +10486,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -10548,10 +10515,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10577,10 +10544,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10606,10 +10573,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10635,10 +10602,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10664,10 +10631,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10693,10 +10660,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10722,10 +10689,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10751,10 +10718,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10780,10 +10747,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10809,10 +10776,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10838,10 +10805,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10867,10 +10834,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10896,10 +10863,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10925,10 +10892,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10954,10 +10921,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10983,10 +10950,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11012,10 +10979,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11041,10 +11008,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -11070,10 +11037,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11099,10 +11066,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11128,10 +11095,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11157,10 +11124,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11186,10 +11153,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11215,10 +11182,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11244,10 +11211,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11273,10 +11240,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11302,10 +11269,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11331,10 +11298,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11360,10 +11327,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11389,10 +11356,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11418,10 +11385,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11447,10 +11414,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11476,10 +11443,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -11505,10 +11472,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11534,10 +11501,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11563,10 +11530,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11592,10 +11559,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11621,10 +11588,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -11650,10 +11617,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11679,10 +11646,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11708,10 +11675,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11737,10 +11704,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11766,10 +11733,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11795,10 +11762,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11824,10 +11791,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11853,10 +11820,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11882,10 +11849,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11911,10 +11878,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11940,10 +11907,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11969,10 +11936,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11998,10 +11965,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12027,10 +11994,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12056,10 +12023,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -12085,10 +12052,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12114,10 +12081,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12143,10 +12110,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -12172,10 +12139,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -12201,10 +12168,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12230,10 +12197,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -12259,10 +12226,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12288,10 +12255,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -12317,10 +12284,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12346,10 +12313,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -12375,10 +12342,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12404,10 +12371,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12433,10 +12400,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12462,10 +12429,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12491,10 +12458,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12520,10 +12487,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12549,10 +12516,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12578,10 +12545,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12607,10 +12574,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12636,10 +12603,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12665,10 +12632,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12694,10 +12661,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12723,10 +12690,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12752,10 +12719,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12781,10 +12748,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12810,10 +12777,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12839,10 +12806,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12868,10 +12835,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12897,10 +12864,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12926,10 +12893,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12955,10 +12922,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12984,10 +12951,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13013,10 +12980,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13042,10 +13009,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13071,10 +13038,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13100,10 +13067,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F312" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G312" t="n">
         <v>405</v>
@@ -13129,10 +13096,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F313" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G313" t="n">
         <v>42</v>
@@ -13158,10 +13125,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F314" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13187,10 +13154,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F315" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13216,10 +13183,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F316" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13245,10 +13212,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F317" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13274,10 +13241,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F318" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13303,10 +13270,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F319" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13332,10 +13299,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F320" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13361,10 +13328,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F321" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13390,10 +13357,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F322" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13419,10 +13386,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F323" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13448,10 +13415,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F324" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13477,10 +13444,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F325" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13506,10 +13473,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F326" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13535,10 +13502,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F327" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13564,10 +13531,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F328" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13593,10 +13560,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F329" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13622,10 +13589,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F330" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13651,10 +13618,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F331" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13680,10 +13647,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F332" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13709,10 +13676,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F333" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13738,10 +13705,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F334" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13767,10 +13734,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F335" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13796,10 +13763,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F336" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13825,10 +13792,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F337" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13854,10 +13821,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F338" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13883,10 +13850,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F339" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13912,10 +13879,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F340" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13941,10 +13908,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F341" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13970,10 +13937,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F342" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13999,10 +13966,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F343" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14028,10 +13995,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F344" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14057,10 +14024,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F345" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14086,10 +14053,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F346" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14115,10 +14082,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F347" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14144,10 +14111,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F348" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14173,10 +14140,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F349" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14202,10 +14169,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F350" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14231,10 +14198,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F351" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14260,10 +14227,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F352" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14289,10 +14256,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F353" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14318,10 +14285,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F354" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14347,10 +14314,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F355" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14376,10 +14343,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F356" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14405,10 +14372,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F357" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14434,10 +14401,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F358" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14463,10 +14430,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F359" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14492,10 +14459,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F360" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14521,10 +14488,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F361" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14550,10 +14517,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F362" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14579,10 +14546,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F363" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14608,10 +14575,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F364" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14637,10 +14604,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F365" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14666,10 +14633,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F366" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14695,10 +14662,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F367" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14724,10 +14691,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F368" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14753,10 +14720,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F369" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14782,10 +14749,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F370" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14811,10 +14778,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F371" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14840,10 +14807,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F372" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14869,10 +14836,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F373" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14898,10 +14865,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F374" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14927,10 +14894,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F375" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14956,10 +14923,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F376" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14985,10 +14952,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F377" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15014,10 +14981,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F378" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15043,10 +15010,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F379" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15072,10 +15039,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F380" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15101,10 +15068,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F381" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15130,10 +15097,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F382" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15159,10 +15126,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F383" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15188,10 +15155,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F384" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15217,10 +15184,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F385" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15246,10 +15213,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F386" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15275,10 +15242,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F387" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15304,10 +15271,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F388" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15333,10 +15300,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F389" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15362,10 +15329,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F390" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15391,10 +15358,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F391" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15420,10 +15387,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F392" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15449,10 +15416,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F393" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15478,10 +15445,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F394" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -15507,10 +15474,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F395" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15536,10 +15503,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F396" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15565,10 +15532,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F397" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15594,10 +15561,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F398" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15623,10 +15590,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F399" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15652,10 +15619,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F400" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15681,10 +15648,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F401" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15710,10 +15677,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F402" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15739,10 +15706,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F403" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15768,10 +15735,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F404" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15797,10 +15764,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F405" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15826,10 +15793,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F406" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15855,10 +15822,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F407" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15884,10 +15851,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F408" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15913,10 +15880,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F409" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15942,10 +15909,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F410" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15971,10 +15938,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F411" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16000,10 +15967,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F412" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16029,10 +15996,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F413" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16058,10 +16025,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F414" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16087,10 +16054,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F415" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16116,10 +16083,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F416" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16145,10 +16112,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F417" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16174,10 +16141,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F418" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16203,10 +16170,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F419" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16232,10 +16199,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F420" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16261,10 +16228,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F421" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16290,10 +16257,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F422" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16319,10 +16286,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F423" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16348,10 +16315,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F424" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16377,10 +16344,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F425" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16406,10 +16373,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F426" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16435,10 +16402,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F427" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16464,10 +16431,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F428" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16493,10 +16460,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F429" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16522,10 +16489,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F430" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16551,10 +16518,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F431" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16580,10 +16547,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F432" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16609,10 +16576,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F433" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16638,10 +16605,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F434" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16667,10 +16634,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F435" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16696,10 +16663,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F436" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16725,10 +16692,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F437" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16754,10 +16721,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F438" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16783,10 +16750,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F439" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16812,10 +16779,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F440" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16841,10 +16808,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F441" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16870,10 +16837,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F442" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16899,10 +16866,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F443" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16928,10 +16895,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F444" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16957,10 +16924,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F445" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16986,10 +16953,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F446" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17015,10 +16982,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F447" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17044,10 +17011,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F448" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17073,10 +17040,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F449" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17102,10 +17069,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F450" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17131,10 +17098,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F451" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17160,10 +17127,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F452" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17189,10 +17156,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F453" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17218,10 +17185,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F454" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17247,10 +17214,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F455" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17276,10 +17243,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F456" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17305,10 +17272,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F457" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17334,10 +17301,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F458" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17363,10 +17330,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F459" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17392,10 +17359,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F460" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17421,10 +17388,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F461" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17450,10 +17417,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F462" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17479,10 +17446,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F463" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17508,10 +17475,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F464" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17537,10 +17504,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F465" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17566,10 +17533,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F466" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17595,10 +17562,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>276</v>
+      </c>
+      <c r="F467" t="s">
         <v>277</v>
-      </c>
-      <c r="F467" t="s">
-        <v>278</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17624,10 +17591,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F468" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17653,10 +17620,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F469" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17682,10 +17649,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F470" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17711,10 +17678,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F471" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17740,10 +17707,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F472" t="s">
-        <v>940</v>
+        <v>193</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17769,10 +17736,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F473" t="s">
-        <v>942</v>
+        <v>191</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17827,10 +17794,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F475" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17856,10 +17823,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F476" t="s">
-        <v>946</v>
+        <v>267</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17885,10 +17852,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F477" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17914,10 +17881,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F478" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17943,10 +17910,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F479" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17972,10 +17939,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F480" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18001,10 +17968,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F481" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18030,10 +17997,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
+        <v>272</v>
+      </c>
+      <c r="F482" t="s">
         <v>273</v>
-      </c>
-      <c r="F482" t="s">
-        <v>274</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18059,10 +18026,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F483" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18088,10 +18055,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F484" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18117,10 +18084,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F485" t="s">
-        <v>962</v>
+        <v>180</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18146,10 +18113,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F486" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18175,10 +18142,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
+        <v>284</v>
+      </c>
+      <c r="F487" t="s">
         <v>285</v>
-      </c>
-      <c r="F487" t="s">
-        <v>286</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18204,10 +18171,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F488" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18233,10 +18200,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F489" t="s">
-        <v>968</v>
+        <v>253</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18262,10 +18229,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F490" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18291,10 +18258,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F491" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18320,10 +18287,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F492" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18349,10 +18316,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F493" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18378,10 +18345,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="F494" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18407,10 +18374,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F495" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18436,10 +18403,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F496" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18465,10 +18432,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="F497" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18494,10 +18461,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F498" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18523,10 +18490,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F499" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18552,10 +18519,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="F500" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18581,10 +18548,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F501" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18610,10 +18577,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F502" t="s">
-        <v>994</v>
+        <v>263</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18639,10 +18606,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F503" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18668,10 +18635,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F504" t="s">
-        <v>998</v>
+        <v>261</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18697,10 +18664,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="F505" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -18755,10 +18722,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="F507" t="s">
-        <v>1002</v>
+        <v>182</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18784,10 +18751,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="F508" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18813,10 +18780,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="F509" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18842,10 +18809,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F510" t="s">
-        <v>1008</v>
+        <v>247</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18871,10 +18838,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F511" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18900,10 +18867,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F512" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18929,10 +18896,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F513" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18958,10 +18925,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="F514" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18987,10 +18954,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="F515" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19016,10 +18983,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F516" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19045,10 +19012,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="F517" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19074,10 +19041,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="F518" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19103,10 +19070,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="F519" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19132,10 +19099,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="F520" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19161,10 +19128,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="F521" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19190,10 +19157,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="F522" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19219,10 +19186,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="F523" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19248,10 +19215,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F524" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19277,10 +19244,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="F525" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19306,10 +19273,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="F526" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19335,10 +19302,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F527" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19364,10 +19331,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="F528" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19393,10 +19360,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F529" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19422,10 +19389,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="F530" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19451,10 +19418,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="F531" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19480,10 +19447,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F532" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19509,10 +19476,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="F533" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19538,10 +19505,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="F534" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19567,10 +19534,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="F535" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19596,10 +19563,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="F536" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19625,10 +19592,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="F537" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19654,10 +19621,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="F538" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19683,10 +19650,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="F539" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19712,10 +19679,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="F540" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19741,10 +19708,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="F541" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19770,10 +19737,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="F542" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19799,10 +19766,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="F543" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19828,10 +19795,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F544" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19857,10 +19824,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="F545" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19886,10 +19853,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="F546" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19915,10 +19882,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="F547" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19944,10 +19911,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="F548" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19973,10 +19940,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="F549" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20002,10 +19969,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="F550" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20031,10 +19998,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="F551" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20060,10 +20027,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="F552" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20089,10 +20056,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="F553" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20118,10 +20085,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="F554" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20147,10 +20114,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="F555" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20176,10 +20143,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="F556" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20205,10 +20172,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="F557" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20234,10 +20201,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="F558" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20263,10 +20230,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="F559" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20292,10 +20259,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="F560" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20321,10 +20288,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="F561" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20350,10 +20317,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="F562" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20379,10 +20346,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="F563" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20408,10 +20375,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="F564" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20437,10 +20404,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F565" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20466,10 +20433,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F566" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="G566" t="n">
         <v>7</v>
@@ -20495,10 +20462,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="F567" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20524,10 +20491,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="F568" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20553,10 +20520,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="F569" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20582,10 +20549,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="F570" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20611,10 +20578,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="F571" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20640,10 +20607,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="F572" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20669,10 +20636,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F573" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="G573" t="n">
         <v>2</v>
@@ -20698,10 +20665,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="F574" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="G574" t="n">
         <v>3</v>
@@ -20727,10 +20694,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="F575" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20756,10 +20723,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="F576" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20785,10 +20752,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="F577" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20814,10 +20781,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="F578" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20843,10 +20810,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="F579" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20872,10 +20839,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="F580" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20901,10 +20868,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F581" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20930,10 +20897,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="F582" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20959,10 +20926,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="F583" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20988,10 +20955,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="F584" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21017,10 +20984,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="F585" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21046,10 +21013,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="F586" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21075,10 +21042,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="F587" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21104,10 +21071,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="F588" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21133,10 +21100,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="F589" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21162,10 +21129,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="F590" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21191,10 +21158,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="F591" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21220,10 +21187,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="F592" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21249,10 +21216,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="F593" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21278,10 +21245,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="F594" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21307,10 +21274,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="F595" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21336,10 +21303,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="F596" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21365,10 +21332,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="F597" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21394,10 +21361,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="F598" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21423,10 +21390,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="F599" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21452,10 +21419,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="F600" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21481,10 +21448,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="F601" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="G601" t="n">
         <v>2</v>
@@ -21510,10 +21477,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="F602" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21539,10 +21506,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="F603" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21568,10 +21535,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="F604" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21597,10 +21564,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="F605" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21626,10 +21593,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="F606" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21655,10 +21622,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="F607" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21684,10 +21651,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="F608" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21713,10 +21680,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="F609" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21742,10 +21709,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="F610" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21771,10 +21738,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="F611" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21800,10 +21767,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="F612" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21829,10 +21796,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="F613" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21858,10 +21825,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="F614" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21887,10 +21854,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="F615" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21916,10 +21883,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="F616" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21945,10 +21912,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="F617" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21974,10 +21941,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="F618" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22003,10 +21970,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="F619" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22032,10 +21999,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="F620" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -22061,10 +22028,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="F621" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22090,10 +22057,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="F622" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
